--- a/PVIAM/excel_statements/2022_financial_statements.xlsx
+++ b/PVIAM/excel_statements/2022_financial_statements.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>item_number</t>
+  </si>
   <si>
     <t>statement_type</t>
   </si>
@@ -28,79 +31,13 @@
     <t>value</t>
   </si>
   <si>
-    <t>Báo cáo kết quả hoạt động kinh doanh</t>
-  </si>
-  <si>
-    <t>Bảng cân đối kế toán</t>
-  </si>
-  <si>
-    <t>Doanh thu</t>
-  </si>
-  <si>
-    <t>Doanh thu hoạt động kinh doanh</t>
-  </si>
-  <si>
-    <t>Doanh thu tài chính</t>
-  </si>
-  <si>
-    <t>Thu nhập khác</t>
-  </si>
-  <si>
-    <t>Chi phí hoạt động kinh doanh</t>
-  </si>
-  <si>
-    <t>Chi phí quản lý doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Chi phí khác</t>
-  </si>
-  <si>
-    <t>Chi phí tài chính</t>
-  </si>
-  <si>
-    <t>Lợi nhuận trước thuế</t>
-  </si>
-  <si>
-    <t>Tổng tài sản</t>
-  </si>
-  <si>
-    <t>Tiền và các khoản tương đương tiền</t>
-  </si>
-  <si>
-    <t>Các khoản đầu tư tài chính ngắn hạn</t>
-  </si>
-  <si>
-    <t>Các khoản phải thu ngắn hạn</t>
-  </si>
-  <si>
-    <t>Tài sản ngắn hạn khác</t>
-  </si>
-  <si>
-    <t>Cộng tài sản ngắn hạn</t>
-  </si>
-  <si>
-    <t>Tài sản cố định</t>
-  </si>
-  <si>
-    <t>Các khoản đầu tư tài chính dài hạn</t>
-  </si>
-  <si>
-    <t>Tài sản dài hạn khác</t>
-  </si>
-  <si>
-    <t>Cộng tài sản dài hạn</t>
-  </si>
-  <si>
-    <t>Nợ phải trả</t>
-  </si>
-  <si>
-    <t>Vốn điều lệ</t>
-  </si>
-  <si>
-    <t>Quỹ khác thuộc vốn chủ sở hữu</t>
-  </si>
-  <si>
-    <t>Lợi nhuận sau thuế chưa phân phối</t>
+    <t>Chi Phí Hoạt động Kinh Doanh, Giá Vốn Bán Hàng</t>
+  </si>
+  <si>
+    <t>Chi Phí Hoạt Động Kinh Doanh</t>
+  </si>
+  <si>
+    <t>Giá Vốn Bán Hàng</t>
   </si>
 </sst>
 </file>
@@ -458,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,327 +414,33 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2022</v>
       </c>
-      <c r="D2">
-        <v>44851172588</v>
+      <c r="E2">
+        <v>20400570242</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2022</v>
-      </c>
-      <c r="D3">
-        <v>41625860148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2022</v>
-      </c>
-      <c r="D4">
-        <v>3225312440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2022</v>
-      </c>
-      <c r="D5">
-        <v>5271906320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2022</v>
-      </c>
-      <c r="D6">
-        <v>20400570242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2022</v>
-      </c>
-      <c r="D7">
-        <v>13253662884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8">
-        <v>109315609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2022</v>
-      </c>
-      <c r="D9">
-        <v>13957585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>2022</v>
-      </c>
-      <c r="D10">
-        <v>11070000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2022</v>
-      </c>
-      <c r="D11">
-        <v>70888000324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>2022</v>
-      </c>
-      <c r="D12">
-        <v>7591754469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>2022</v>
-      </c>
-      <c r="D13">
-        <v>18300000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>2022</v>
-      </c>
-      <c r="D14">
-        <v>10175628817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>2022</v>
-      </c>
-      <c r="D15">
-        <v>733021838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>2022</v>
-      </c>
-      <c r="D16">
-        <v>36067389628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17">
-        <v>967806342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18">
-        <v>31000000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19">
-        <v>2852804354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20">
-        <v>34820610696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21">
-        <v>11342080052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>2022</v>
-      </c>
-      <c r="D22">
-        <v>50000000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>2742882040</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>2022</v>
-      </c>
-      <c r="D24">
-        <v>5222908274</v>
       </c>
     </row>
   </sheetData>
